--- a/new_modules/Summary_2023-05-20_L2A.xlsx
+++ b/new_modules/Summary_2023-05-20_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1214.369873046875</v>
+        <v>1214.601440429688</v>
       </c>
       <c r="C2">
-        <v>0.911</v>
+        <v>0.9112</v>
       </c>
       <c r="D2">
-        <v>0.8863999843597412</v>
+        <v>0.8974999785423279</v>
       </c>
       <c r="E2">
-        <v>1.378700017929077</v>
+        <v>1.259999990463257</v>
       </c>
       <c r="F2">
-        <v>0.7315999865531921</v>
+        <v>0.8033999800682068</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.5351</v>
+        <v>0.6331</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1371.017822265625</v>
+        <v>1208.54736328125</v>
       </c>
       <c r="C3">
-        <v>1.0968</v>
+        <v>0.9668</v>
       </c>
       <c r="D3">
-        <v>0.9738</v>
+        <v>0.9275</v>
       </c>
       <c r="E3">
-        <v>2.642699956893921</v>
+        <v>1.479599952697754</v>
       </c>
       <c r="F3">
-        <v>0.6417000293731689</v>
+        <v>0.781499981880188</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>1.3087</v>
+        <v>0.8986</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>887.410888671875</v>
+        <v>817.7930297851562</v>
       </c>
       <c r="C4">
-        <v>1.0367</v>
+        <v>0.9554</v>
       </c>
       <c r="D4">
-        <v>0.9465</v>
+        <v>0.9193</v>
       </c>
       <c r="E4">
-        <v>2.454200029373169</v>
+        <v>1.36679995059967</v>
       </c>
       <c r="F4">
-        <v>0.7519999742507935</v>
+        <v>0.8328999876976013</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>1.0672</v>
+        <v>0.8262</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>859.8391723632812</v>
+        <v>894.7968139648438</v>
       </c>
       <c r="C5">
-        <v>0.907</v>
+        <v>0.9439</v>
       </c>
       <c r="D5">
-        <v>0.8888</v>
+        <v>0.9292</v>
       </c>
       <c r="E5">
-        <v>1.450000047683716</v>
+        <v>1.174299955368042</v>
       </c>
       <c r="F5">
-        <v>0.6732000112533569</v>
+        <v>0.7394000291824341</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.5561</v>
+        <v>0.9141</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1136.6513671875</v>
+        <v>1181.625854492188</v>
       </c>
       <c r="C6">
-        <v>0.8992</v>
+        <v>0.9348</v>
       </c>
       <c r="D6">
-        <v>0.8924</v>
+        <v>0.9362</v>
       </c>
       <c r="E6">
-        <v>1.215100049972534</v>
+        <v>1.115599989891052</v>
       </c>
       <c r="F6">
-        <v>0.6984000205993652</v>
+        <v>0.8299999833106995</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.588</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>854.4213256835938</v>
+        <v>906.6458740234375</v>
       </c>
       <c r="C7">
-        <v>0.8604000000000001</v>
+        <v>0.913</v>
       </c>
       <c r="D7">
-        <v>0.8486999869346619</v>
+        <v>0.9093999862670898</v>
       </c>
       <c r="E7">
-        <v>1.146000027656555</v>
+        <v>1.077900052070618</v>
       </c>
       <c r="F7">
-        <v>0.7014999985694885</v>
+        <v>0.7694000005722046</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.2011</v>
+        <v>0.7385</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>921.796875</v>
+        <v>993.2744140625</v>
       </c>
       <c r="C8">
-        <v>0.826</v>
+        <v>0.89</v>
       </c>
       <c r="D8">
-        <v>0.8179999999999999</v>
+        <v>0.8869</v>
       </c>
       <c r="E8">
-        <v>1.148800015449524</v>
+        <v>1.068600058555603</v>
       </c>
       <c r="F8">
-        <v>0.696399986743927</v>
+        <v>0.789900004863739</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>-0.0713</v>
+        <v>0.5394</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7245.50732421875</v>
+        <v>7217.28515625</v>
       </c>
       <c r="C9">
-        <v>0.9338</v>
+        <v>0.9301</v>
       </c>
       <c r="D9">
-        <v>0.885</v>
+        <v>0.9121</v>
       </c>
       <c r="E9">
-        <v>2.642699956893921</v>
+        <v>1.479599952697754</v>
       </c>
       <c r="F9">
-        <v>0.6417000293731689</v>
+        <v>0.7394000291824341</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>4.1849</v>
+        <v>5.525899999999999</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2023-05-20_L2A.xlsx
+++ b/new_modules/Summary_2023-05-20_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1214.601440429688</v>
+        <v>1214.136596679688</v>
       </c>
       <c r="C2">
-        <v>0.9112</v>
+        <v>0.9108000000000001</v>
       </c>
       <c r="D2">
-        <v>0.8974999785423279</v>
+        <v>0.8863000273704529</v>
       </c>
       <c r="E2">
-        <v>1.259999990463257</v>
+        <v>1.378399968147278</v>
       </c>
       <c r="F2">
-        <v>0.8033999800682068</v>
+        <v>0.7314000129699707</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.6331</v>
+        <v>0.5336</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1208.54736328125</v>
+        <v>1370.754516601562</v>
       </c>
       <c r="C3">
-        <v>0.9668</v>
+        <v>1.0966</v>
       </c>
       <c r="D3">
-        <v>0.9275</v>
+        <v>0.9736</v>
       </c>
       <c r="E3">
-        <v>1.479599952697754</v>
+        <v>2.642199993133545</v>
       </c>
       <c r="F3">
-        <v>0.781499981880188</v>
+        <v>0.6416000127792358</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>0.8986</v>
+        <v>1.3071</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>817.7930297851562</v>
+        <v>887.240478515625</v>
       </c>
       <c r="C4">
-        <v>0.9554</v>
+        <v>1.0365</v>
       </c>
       <c r="D4">
-        <v>0.9193</v>
+        <v>0.9463</v>
       </c>
       <c r="E4">
-        <v>1.36679995059967</v>
+        <v>2.453700065612793</v>
       </c>
       <c r="F4">
-        <v>0.8328999876976013</v>
+        <v>0.7519000172615051</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.8262</v>
+        <v>1.0655</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>894.7968139648438</v>
+        <v>859.6741943359375</v>
       </c>
       <c r="C5">
-        <v>0.9439</v>
+        <v>0.9068000000000001</v>
       </c>
       <c r="D5">
-        <v>0.9292</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="E5">
-        <v>1.174299955368042</v>
+        <v>1.449699997901917</v>
       </c>
       <c r="F5">
-        <v>0.7394000291824341</v>
+        <v>0.6730999946594238</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.9141</v>
+        <v>0.5546</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1181.625854492188</v>
+        <v>1136.43310546875</v>
       </c>
       <c r="C6">
-        <v>0.9348</v>
+        <v>0.8991</v>
       </c>
       <c r="D6">
-        <v>0.9362</v>
+        <v>0.8922</v>
       </c>
       <c r="E6">
-        <v>1.115599989891052</v>
+        <v>1.214800000190735</v>
       </c>
       <c r="F6">
-        <v>0.8299999833106995</v>
+        <v>0.6983000040054321</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.976</v>
+        <v>0.5865</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>906.6458740234375</v>
+        <v>854.257080078125</v>
       </c>
       <c r="C7">
-        <v>0.913</v>
+        <v>0.8603</v>
       </c>
       <c r="D7">
-        <v>0.9093999862670898</v>
+        <v>0.8485999703407288</v>
       </c>
       <c r="E7">
-        <v>1.077900052070618</v>
+        <v>1.145799994468689</v>
       </c>
       <c r="F7">
-        <v>0.7694000005722046</v>
+        <v>0.7013999819755554</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.7385</v>
+        <v>0.1996</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>993.2744140625</v>
+        <v>921.6198120117188</v>
       </c>
       <c r="C8">
-        <v>0.89</v>
+        <v>0.8258</v>
       </c>
       <c r="D8">
-        <v>0.8869</v>
+        <v>0.8178</v>
       </c>
       <c r="E8">
-        <v>1.068600058555603</v>
+        <v>1.148599982261658</v>
       </c>
       <c r="F8">
-        <v>0.789900004863739</v>
+        <v>0.6962000131607056</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.5394</v>
+        <v>-0.0727</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7217.28515625</v>
+        <v>7244.11572265625</v>
       </c>
       <c r="C9">
-        <v>0.9301</v>
+        <v>0.9337</v>
       </c>
       <c r="D9">
-        <v>0.9121</v>
+        <v>0.8848</v>
       </c>
       <c r="E9">
-        <v>1.479599952697754</v>
+        <v>2.642199993133545</v>
       </c>
       <c r="F9">
-        <v>0.7394000291824341</v>
+        <v>0.6416000127792358</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>5.525899999999999</v>
+        <v>4.1742</v>
       </c>
     </row>
   </sheetData>
